--- a/biology/Zoologie/Ascaridida/Ascaridida.xlsx
+++ b/biology/Zoologie/Ascaridida/Ascaridida.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ascaridida est un ordre de nématodes (les nématodes sont un embranchement de vers non segmentés, recouverts d'une épaisse cuticule et menant une vie libre ou parasitaire). Il n'est pas accepté par WoRMS : World Register of Marine Species                               (24 juillet 2018)[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ascaridida est un ordre de nématodes (les nématodes sont un embranchement de vers non segmentés, recouverts d'une épaisse cuticule et menant une vie libre ou parasitaire). Il n'est pas accepté par WoRMS : World Register of Marine Species                               (24 juillet 2018).
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Liste des super-familles et familles</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon NCBI  (27 mars 2011)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (27 mars 2011) :
 super-famille des Ascaridoidea
 famille des Anisakidae
 famille des Ascarididae
@@ -557,9 +571,11 @@
           <t>Liste des familles</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon ITIS      (24 juillet 2018)[3] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon ITIS      (24 juillet 2018) :
 Acanthocheilidae
 Anisakidae
 Ascarididae
